--- a/app/data/absenteeism_data_26.xlsx
+++ b/app/data/absenteeism_data_26.xlsx
@@ -476,74 +476,74 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9696</v>
+        <v>30304</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Heitor Porto</t>
+          <t>Stella Moraes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45106</v>
+        <v>45095</v>
       </c>
       <c r="G2" t="n">
-        <v>7548.41</v>
+        <v>10293.32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>30293</v>
+        <v>25915</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ana Beatriz da Costa</t>
+          <t>Sabrina Jesus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45082</v>
+        <v>45079</v>
       </c>
       <c r="G3" t="n">
-        <v>11402.76</v>
+        <v>10529.68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>92830</v>
+        <v>34306</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Carlos Eduardo Fogaça</t>
+          <t>Natália Cavalcanti</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,80 +552,80 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45104</v>
+        <v>45103</v>
       </c>
       <c r="G4" t="n">
-        <v>5624.16</v>
+        <v>5448.32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>49533</v>
+        <v>86775</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Yago Nascimento</t>
+          <t>Leandro Cunha</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45102</v>
+        <v>45094</v>
       </c>
       <c r="G5" t="n">
-        <v>12250.73</v>
+        <v>3095.09</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>69315</v>
+        <v>65918</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gustavo Henrique Costela</t>
+          <t>Alexandre Oliveira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45089</v>
+        <v>45086</v>
       </c>
       <c r="G6" t="n">
-        <v>10039.91</v>
+        <v>4947.71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>36281</v>
+        <v>76078</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sofia Sales</t>
+          <t>Maria Fernanda Gomes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,84 +635,84 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45084</v>
+        <v>45081</v>
       </c>
       <c r="G7" t="n">
-        <v>8167.54</v>
+        <v>12473.04</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6816</v>
+        <v>64818</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Srta. Sophia Mendes</t>
+          <t>João Pedro Sales</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45081</v>
+        <v>45105</v>
       </c>
       <c r="G8" t="n">
-        <v>3270.57</v>
+        <v>3776.71</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>96632</v>
+        <v>24047</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dra. Lavínia Aragão</t>
+          <t>Luiz Miguel Alves</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45078</v>
+        <v>45099</v>
       </c>
       <c r="G9" t="n">
-        <v>5398.17</v>
+        <v>7914.07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>99835</v>
+        <v>28185</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Igor Costela</t>
+          <t>Dr. Davi Melo</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -722,46 +722,46 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45088</v>
+        <v>45096</v>
       </c>
       <c r="G10" t="n">
-        <v>6465.85</v>
+        <v>5581.62</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>40155</v>
+        <v>6416</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Emanuel Pinto</t>
+          <t>Pietro Nunes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45087</v>
+        <v>45091</v>
       </c>
       <c r="G11" t="n">
-        <v>5291.36</v>
+        <v>4741.84</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/absenteeism_data_26.xlsx
+++ b/app/data/absenteeism_data_26.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>90372</v>
+        <v>72709</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Camila Pinto</t>
+          <t>Beatriz da Mata</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,143 +494,143 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45105</v>
+        <v>45079</v>
       </c>
       <c r="G2" t="n">
-        <v>7820.98</v>
+        <v>10816.59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>60593</v>
+        <v>67756</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Clara Vieira</t>
+          <t>Luiza Aragão</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45093</v>
+        <v>45082</v>
       </c>
       <c r="G3" t="n">
-        <v>4517.76</v>
+        <v>11632.42</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>10046</v>
+        <v>18192</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arthur Melo</t>
+          <t>Sra. Maria Luiza Cunha</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45096</v>
+        <v>45091</v>
       </c>
       <c r="G4" t="n">
-        <v>4360.89</v>
+        <v>8347.15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>41135</v>
+        <v>7101</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lorenzo Sales</t>
+          <t>Maria Cecília Dias</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45080</v>
+        <v>45089</v>
       </c>
       <c r="G5" t="n">
-        <v>12279.32</v>
+        <v>4537.25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>99420</v>
+        <v>29481</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Leonardo Castro</t>
+          <t>Sophia Melo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45105</v>
+        <v>45101</v>
       </c>
       <c r="G6" t="n">
-        <v>12243.34</v>
+        <v>6869.17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>61885</v>
+        <v>23107</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Vitor Duarte</t>
+          <t>Dra. Lavínia Rocha</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,22 +639,22 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45101</v>
+        <v>45083</v>
       </c>
       <c r="G7" t="n">
-        <v>3982.66</v>
+        <v>8923.93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>39594</v>
+        <v>46686</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Erick Peixoto</t>
+          <t>Francisco Silva</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -668,85 +668,85 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45090</v>
+        <v>45079</v>
       </c>
       <c r="G8" t="n">
-        <v>5416.22</v>
+        <v>7131.25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>25490</v>
+        <v>92222</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Manuela Teixeira</t>
+          <t>Bianca Teixeira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>6</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45078</v>
+        <v>45103</v>
       </c>
       <c r="G9" t="n">
-        <v>11157.05</v>
+        <v>9463.26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>56888</v>
+        <v>26501</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Samuel Viana</t>
+          <t>Larissa Jesus</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45088</v>
+        <v>45105</v>
       </c>
       <c r="G10" t="n">
-        <v>2839.36</v>
+        <v>5654.84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>579</v>
+        <v>65352</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Thomas Barbosa</t>
+          <t>Isabella Carvalho</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45083</v>
+        <v>45096</v>
       </c>
       <c r="G11" t="n">
-        <v>4823.33</v>
+        <v>7937</v>
       </c>
     </row>
   </sheetData>
